--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Experiment 1&amp;2" sheetId="1" r:id="rId1"/>
-    <sheet name="Experiment 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -163,10 +162,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +470,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N3"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,342 +976,342 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>2</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>4</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4" t="s">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>5</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4" t="s">
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="H23" s="4">
-        <v>6</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="B24" s="3">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4">
-        <v>7</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="3">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4">
-        <v>8</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="B26" s="3">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="H26" s="4">
-        <v>9</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
+      <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>9</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>10</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>10</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4" t="s">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="B28" s="3">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4">
-        <v>11</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+      <c r="B29" s="3">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="4">
-        <v>3</v>
-      </c>
-      <c r="H29" s="4">
-        <v>12</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4" t="s">
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1324,516 +1323,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>9</v>
-      </c>
-      <c r="M6">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>11</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>9</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>8</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Participant</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Done?</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>DH</t>
   </si>
 </sst>
 </file>
@@ -470,7 +479,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +532,9 @@
       <c r="N3">
         <v>7</v>
       </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -564,6 +576,9 @@
       <c r="N4">
         <v>8</v>
       </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -604,6 +619,9 @@
       </c>
       <c r="N5">
         <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">

--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Participant</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>DH</t>
+  </si>
+  <si>
+    <t>SK</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +666,9 @@
       </c>
       <c r="N6">
         <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">

--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Participant</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>SK</t>
+  </si>
+  <si>
+    <t>Hoda Zare</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N7" sqref="C7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +713,9 @@
       </c>
       <c r="N7">
         <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">

--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Participant</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Hoda Zare</t>
+  </si>
+  <si>
+    <t>Levko</t>
+  </si>
+  <si>
+    <t>Masa</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="C7:N7"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +764,9 @@
       <c r="N8">
         <v>12</v>
       </c>
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -798,6 +807,9 @@
       </c>
       <c r="N9">
         <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">

--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Participant</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Masa</t>
+  </si>
+  <si>
+    <t>Zahid</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="C10" sqref="C10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,6 +854,9 @@
       </c>
       <c r="N10">
         <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">

--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Participant</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Zahid</t>
+  </si>
+  <si>
+    <t>Khalad</t>
+  </si>
+  <si>
+    <t>DG</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:N10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +905,9 @@
       <c r="N11">
         <v>3</v>
       </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -939,6 +948,9 @@
       </c>
       <c r="N12">
         <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">

--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Participant</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>DG</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,6 +995,9 @@
       </c>
       <c r="N13">
         <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">

--- a/Data/experimental design.xlsx
+++ b/Data/experimental design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Participant</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,6 +1042,9 @@
       </c>
       <c r="N14">
         <v>6</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
